--- a/Correcciones.xlsx
+++ b/Correcciones.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/facusalerno/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/facusalerno/UTN/Diseño de Sistemas/2019-vi-no-group-20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8ADE23-8862-814A-9E2F-8B0672A7B6D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A2D30-A6C4-F449-8A1A-4C1C7737BCBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{324B1948-A5C8-DD4D-B2AE-200642FD4833}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{324B1948-A5C8-DD4D-B2AE-200642FD4833}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimeraEntrega" sheetId="1" r:id="rId1"/>
+    <sheet name="SegundaEntrega" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PrimeraEntrega!$A$1:$B$23</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Primera entrega</t>
   </si>
@@ -121,6 +122,78 @@
   </si>
   <si>
     <t>Delegar en el test que vemos si el atuendo es valido, no usar “get categoria”  cambiarlo por esSuperior, esInferior</t>
+  </si>
+  <si>
+    <t>Segunda entrega</t>
+  </si>
+  <si>
+    <t>No esta bueno catchear NullPointerException, puede encubrir un error grave</t>
+  </si>
+  <si>
+    <t>Contemplar que no haya accesorios</t>
+  </si>
+  <si>
+    <t>Problema que sea random (shuffle) las combinatorias de las prendas superiores</t>
+  </si>
+  <si>
+    <t>Que no se repita el tipo de prenda y no sean tipos parecidos (camisas, remera, remera manga corta</t>
+  </si>
+  <si>
+    <t>Que pueda no tener un accesorio</t>
+  </si>
+  <si>
+    <t>Accesorios sin temperatura</t>
+  </si>
+  <si>
+    <t>Atuendos con prendas inferiores superpuestas</t>
+  </si>
+  <si>
+    <t>Que se sepan las combinaciones posibles de antemano (tipo una plantilla)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tener niveles de prendas (ej: remera nivel 0, buso nivel 1) </t>
+  </si>
+  <si>
+    <t>Poder agregar prendas al guardarropas una vez instanciado, viendo en el limitado de no pasar el limite</t>
+  </si>
+  <si>
+    <t>Codigo repetido en los constructores de guardarropas</t>
+  </si>
+  <si>
+    <t>Decisiones: Atributo protected(Atuendo)</t>
+  </si>
+  <si>
+    <t>Decisiones: Tener el evento en la decision (no esta mal no tenerla, es mas que nada para cuando el usuario quiere deshacer)</t>
+  </si>
+  <si>
+    <t>Decisiones: Remover de lista aceptado/rechazado cuando se deshace la ultima accion</t>
+  </si>
+  <si>
+    <t>Decisiones: Que pasa con las sugerencias que da el guardarropas sin un evento (tener en cuenta si se acepta o rechaza por fuera del evento)</t>
+  </si>
+  <si>
+    <t>Adapter: Metido en el json (ojo)</t>
+  </si>
+  <si>
+    <t>Adapter: No poner main de nombre en NetClientGet</t>
+  </si>
+  <si>
+    <t>Imagen: Hace perder la inmutabilidad, meterla en el builder</t>
+  </si>
+  <si>
+    <t>Test: Uso de mocks al usar meteorologos (No pegarle a las APIs)</t>
+  </si>
+  <si>
+    <t>Test: Faltan tests, testear que las sugerencias se puedan aceptar y rechazar por parte del usuario</t>
+  </si>
+  <si>
+    <t>Test: Testear funcionalidad</t>
+  </si>
+  <si>
+    <t>Test: Testear que el usuario tenga en lista de aceptados lo que acepto</t>
+  </si>
+  <si>
+    <t>[OK]</t>
   </si>
 </sst>
 </file>
@@ -236,14 +309,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,6 +319,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD0917A-895F-6A46-9D2F-DF8C5F20B346}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -579,184 +655,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -775,4 +851,210 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE906E38-80DB-B544-94FD-FACB0F3D6AC2}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="125.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>